--- a/summer_school_sessions/9_hypothesis_challenge/myPredictions-Wide.xlsx
+++ b/summer_school_sessions/9_hypothesis_challenge/myPredictions-Wide.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\GitHub Repos\STE-PHEN\summer_school_sessions\5_predictions_in_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\GitHub Repos\STE-PHEN\summer_school_sessions\9_hypothesis_challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="myPredictions-Wide" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Affect SC</t>
-  </si>
-  <si>
-    <t>Amplitude</t>
   </si>
   <si>
     <t>Pitch</t>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Color YB</t>
+  </si>
+  <si>
+    <t>Amp</t>
   </si>
 </sst>
 </file>
@@ -880,7 +880,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,37 +903,37 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f>F2</f>
@@ -996,7 +996,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <f>G2</f>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <f>H2</f>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <f>I2</f>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <f>J2</f>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <f>K2</f>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <f>L2</f>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <f>M2</f>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <f>N2</f>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <f>O2</f>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <f>P2</f>
